--- a/profiling/profiling.xlsx
+++ b/profiling/profiling.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12945" windowHeight="7320" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="6270" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GC included in time" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Tensorics - GC excluded" sheetId="3" r:id="rId3"/>
     <sheet name="doublearraybacked" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <oleSize ref="A1:J23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -181,13 +181,13 @@
     <t>DoubleTensor</t>
   </si>
   <si>
-    <t>Double Tensor, unchecked put:</t>
+    <t>Double Tensor, unboxed put:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,9 +245,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -284,7 +284,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -409,6 +409,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8983-4A77-98C2-18D572C12A54}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -476,7 +481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92266496"/>
@@ -538,7 +543,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69975360"/>
@@ -580,7 +585,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -610,7 +615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -622,9 +627,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -757,7 +762,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -838,6 +843,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-444A-4469-9F8E-15251A8A2E2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -905,7 +915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97079808"/>
@@ -967,7 +977,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97079232"/>
@@ -1009,7 +1019,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1039,7 +1049,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1051,9 +1061,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1090,7 +1100,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1181,7 +1191,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1265,6 +1275,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0BA-467D-96E4-062A23A805BD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1332,7 +1347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97082112"/>
@@ -1394,7 +1409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97081536"/>
@@ -1436,7 +1451,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1466,7 +1481,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1478,9 +1493,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1613,7 +1628,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1694,6 +1709,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D45-4745-8D05-3F21B952C346}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1761,7 +1781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107398272"/>
@@ -1823,7 +1843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107397696"/>
@@ -1865,7 +1885,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1895,7 +1915,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1907,9 +1927,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1946,7 +1966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2037,7 +2057,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2121,6 +2141,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D88-414D-AC95-E55A838D60C5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2188,7 +2213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107400576"/>
@@ -2250,7 +2275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107400000"/>
@@ -2292,7 +2317,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2322,7 +2347,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2334,9 +2359,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2469,7 +2494,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2553,6 +2578,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F383-4E5F-9B88-991C55FBFA7A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2620,7 +2650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107402880"/>
@@ -2682,7 +2712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107402304"/>
@@ -2724,7 +2754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2754,7 +2784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2766,9 +2796,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2805,7 +2835,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2896,7 +2926,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2980,6 +3010,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E36F-44E9-B257-7E112A262163}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3047,7 +3082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107585536"/>
@@ -3109,7 +3144,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107404608"/>
@@ -3151,7 +3186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3181,7 +3216,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3193,9 +3228,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3328,7 +3363,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3412,6 +3447,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-323A-40E2-B7F8-BEB14442E830}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3479,7 +3519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107587840"/>
@@ -3541,7 +3581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107587264"/>
@@ -3583,7 +3623,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3613,7 +3653,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3625,9 +3665,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3664,7 +3704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3755,7 +3795,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3839,6 +3879,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E373-47B6-9A55-3077B88C7C98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3906,7 +3951,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107590720"/>
@@ -3968,7 +4013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107590144"/>
@@ -4010,7 +4055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4040,7 +4085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4052,9 +4097,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4187,7 +4232,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4268,6 +4313,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C86B-4FA9-8E25-9AFF382337AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4335,7 +4385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107593024"/>
@@ -4397,7 +4447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107592448"/>
@@ -4439,7 +4489,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4469,7 +4519,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4481,9 +4531,9 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4520,7 +4570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4611,7 +4661,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4695,6 +4745,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB7F-4076-94EA-FD31299E9BC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4762,7 +4817,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107922560"/>
@@ -4824,7 +4879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107921984"/>
@@ -4866,7 +4921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4896,7 +4951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4908,9 +4963,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5043,7 +5098,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5124,6 +5179,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE37-461E-8240-BAB1AB971DA3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5191,7 +5251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92268800"/>
@@ -5253,7 +5313,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92268224"/>
@@ -5295,7 +5355,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5325,7 +5385,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5337,9 +5397,9 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5472,7 +5532,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5553,6 +5613,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-544E-4F60-A7DC-DB169C6B6E07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5620,7 +5685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107924864"/>
@@ -5682,7 +5747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107924288"/>
@@ -5724,7 +5789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5754,7 +5819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5766,9 +5831,9 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5805,7 +5870,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5896,7 +5961,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5980,6 +6045,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5423-4AFA-969E-AB64A943AC01}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6047,7 +6117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107927168"/>
@@ -6109,7 +6179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107926592"/>
@@ -6151,7 +6221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6181,7 +6251,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6193,9 +6263,9 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6232,7 +6302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6323,7 +6393,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6407,6 +6477,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-567C-416C-8F8E-ABE9D7CF24B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6474,7 +6549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108126208"/>
@@ -6536,7 +6611,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107928896"/>
@@ -6578,7 +6653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6608,7 +6683,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6620,9 +6695,9 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6659,7 +6734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6750,7 +6825,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6834,6 +6909,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72F4-46FE-BB21-0AD25CB2E824}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6901,7 +6981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108128512"/>
@@ -6963,7 +7043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108127936"/>
@@ -7005,7 +7085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7035,7 +7115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7047,9 +7127,9 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7216,6 +7296,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-851E-4059-B589-C80BB75941FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7283,7 +7368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108130816"/>
@@ -7345,7 +7430,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108130240"/>
@@ -7387,7 +7472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7417,7 +7502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7429,9 +7514,9 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7468,7 +7553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7559,7 +7644,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -7643,6 +7728,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32D1-4953-AA7C-93713C952760}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7710,7 +7800,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108133120"/>
@@ -7772,7 +7862,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="108132544"/>
@@ -7814,7 +7904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7844,7 +7934,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7856,9 +7946,9 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7895,7 +7985,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7986,7 +8076,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -8070,6 +8160,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67ED-4A45-9FC0-D484DF82012D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8137,7 +8232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="129049728"/>
@@ -8199,7 +8294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="129049152"/>
@@ -8241,7 +8336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8271,7 +8366,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8283,9 +8378,9 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8452,6 +8547,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B59D-407B-B6BB-58325108E3E0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8519,7 +8619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="129052032"/>
@@ -8581,7 +8681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="129051456"/>
@@ -8623,7 +8723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8653,7 +8753,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8665,9 +8765,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8704,7 +8804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8829,6 +8929,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81EB-48AF-8592-2CF4EA3D25FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8896,7 +9001,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92271104"/>
@@ -8958,7 +9063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92270528"/>
@@ -9000,7 +9105,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9030,7 +9135,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9042,9 +9147,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9177,7 +9282,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9258,6 +9363,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-203B-4F29-B4A0-1CA9D37EC058}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9325,7 +9435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92273408"/>
@@ -9387,7 +9497,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92272832"/>
@@ -9429,7 +9539,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9459,7 +9569,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9471,9 +9581,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9510,7 +9620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9635,6 +9745,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7434-43DD-9947-971F83B358FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9702,7 +9817,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96806016"/>
@@ -9764,7 +9879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96805440"/>
@@ -9806,7 +9921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9836,7 +9951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9848,9 +9963,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9983,7 +10098,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10064,6 +10179,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1050-4476-AF25-02CB66C32990}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10131,7 +10251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96808320"/>
@@ -10193,7 +10313,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96807744"/>
@@ -10235,7 +10355,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10265,7 +10385,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10277,9 +10397,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10316,7 +10436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10407,7 +10527,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10491,6 +10611,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0854-4DBE-BA5A-CE7E785CE466}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10558,7 +10683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96810624"/>
@@ -10620,7 +10745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96810048"/>
@@ -10662,7 +10787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10692,7 +10817,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10704,9 +10829,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10839,7 +10964,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10923,6 +11048,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D184-436C-917E-03B8B36E56AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10990,7 +11120,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97075200"/>
@@ -11052,7 +11182,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96812352"/>
@@ -11094,7 +11224,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11124,7 +11254,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11136,9 +11266,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11175,7 +11305,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11266,7 +11396,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11350,6 +11480,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A49-491C-B639-14A687B2356E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11417,7 +11552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97077504"/>
@@ -11479,7 +11614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="97076928"/>
@@ -11521,7 +11656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11551,7 +11686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11579,7 +11714,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11609,7 +11750,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11641,7 +11788,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11673,7 +11826,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11705,7 +11864,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11737,7 +11902,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11769,7 +11940,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11801,7 +11978,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11833,7 +12016,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11865,7 +12054,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11897,7 +12092,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11929,7 +12130,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11961,7 +12168,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11993,7 +12206,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12025,7 +12244,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12057,7 +12282,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12089,7 +12320,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12121,7 +12358,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12153,7 +12396,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12185,7 +12434,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12217,7 +12472,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12249,7 +12510,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12281,7 +12548,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12313,7 +12586,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvPr id="28" name="Chart 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12345,7 +12624,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvPr id="29" name="Chart 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12377,7 +12662,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvPr id="30" name="Chart 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12409,7 +12700,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvPr id="31" name="Chart 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12684,7 +12981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12698,14 +12995,14 @@
       <selection activeCell="H303" sqref="H303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12716,7 +13013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -12727,7 +13024,7 @@
         <v>298400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -12738,7 +13035,7 @@
         <v>722152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -12749,7 +13046,7 @@
         <v>825560</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4000</v>
       </c>
@@ -12760,7 +13057,7 @@
         <v>905272</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -12771,7 +13068,7 @@
         <v>1007840</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6000</v>
       </c>
@@ -12782,7 +13079,7 @@
         <v>1113800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7000</v>
       </c>
@@ -12793,7 +13090,7 @@
         <v>1188680</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -12804,7 +13101,7 @@
         <v>1274824</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9000</v>
       </c>
@@ -12815,7 +13112,7 @@
         <v>1354824</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -12826,12 +13123,12 @@
         <v>1474352</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -12842,7 +13139,7 @@
         <v>258544</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -12853,7 +13150,7 @@
         <v>675696</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -12864,7 +13161,7 @@
         <v>778696</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -12875,7 +13172,7 @@
         <v>858344</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -12886,7 +13183,7 @@
         <v>960704</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6000</v>
       </c>
@@ -12897,7 +13194,7 @@
         <v>1066664</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>7000</v>
       </c>
@@ -12908,7 +13205,7 @@
         <v>1141640</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>8000</v>
       </c>
@@ -12919,7 +13216,7 @@
         <v>1227752</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>9000</v>
       </c>
@@ -12930,7 +13227,7 @@
         <v>1307752</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10000</v>
       </c>
@@ -12941,12 +13238,12 @@
         <v>1427704</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -12957,7 +13254,7 @@
         <v>245688</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -12968,7 +13265,7 @@
         <v>676032</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3000</v>
       </c>
@@ -12979,7 +13276,7 @@
         <v>778360</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>4000</v>
       </c>
@@ -12990,7 +13287,7 @@
         <v>858216</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>5000</v>
       </c>
@@ -13001,7 +13298,7 @@
         <v>960640</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>6000</v>
       </c>
@@ -13012,7 +13309,7 @@
         <v>1066696</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>7000</v>
       </c>
@@ -13023,7 +13320,7 @@
         <v>1141480</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>8000</v>
       </c>
@@ -13034,7 +13331,7 @@
         <v>1227624</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>9000</v>
       </c>
@@ -13045,7 +13342,7 @@
         <v>1307624</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>10000</v>
       </c>
@@ -13056,12 +13353,12 @@
         <v>1427576</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -13072,7 +13369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>10000</v>
       </c>
@@ -13087,7 +13384,7 @@
         <v>5.08868408203125</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>20000</v>
       </c>
@@ -13102,7 +13399,7 @@
         <v>6.4137420654296875</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>30000</v>
       </c>
@@ -13114,10 +13411,10 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>7.3563919067382812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.3563919067382813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>40000</v>
       </c>
@@ -13129,10 +13426,10 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>8.1701126098632812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.1701126098632813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>50000</v>
       </c>
@@ -13144,10 +13441,10 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>9.3080520629882812</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.3080520629882813</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>60000</v>
       </c>
@@ -13159,10 +13456,10 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>9.9928665161132812</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.9928665161132813</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>70000</v>
       </c>
@@ -13177,7 +13474,7 @@
         <v>10.677680969238281</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>80000</v>
       </c>
@@ -13192,7 +13489,7 @@
         <v>11.690620422363281</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>90000</v>
       </c>
@@ -13207,7 +13504,7 @@
         <v>12.547309875488281</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>100000</v>
       </c>
@@ -13222,7 +13519,7 @@
         <v>13.966499328613281</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -13230,7 +13527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -13241,7 +13538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>10000</v>
       </c>
@@ -13256,7 +13553,7 @@
         <v>1.13433837890625</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>20000</v>
       </c>
@@ -13268,10 +13565,10 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>2.9972152709960937</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.9972152709960938</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>30000</v>
       </c>
@@ -13286,7 +13583,7 @@
         <v>3.8848342895507813</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>40000</v>
       </c>
@@ -13298,10 +13595,10 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>4.7727737426757812</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.7727737426757813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>50000</v>
       </c>
@@ -13316,7 +13613,7 @@
         <v>5.7857131958007813</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>60000</v>
       </c>
@@ -13331,7 +13628,7 @@
         <v>6.5486526489257813</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>70000</v>
       </c>
@@ -13346,7 +13643,7 @@
         <v>7.3115921020507813</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>80000</v>
       </c>
@@ -13358,10 +13655,10 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>8.3245315551757812</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.3245315551757813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>90000</v>
       </c>
@@ -13373,10 +13670,10 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>9.0874710083007812</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.0874710083007813</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>100000</v>
       </c>
@@ -13391,7 +13688,7 @@
         <v>10.350410461425781</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -13399,7 +13696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -13410,7 +13707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>10000</v>
       </c>
@@ -13425,7 +13722,7 @@
         <v>1.0941162109375</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>20000</v>
       </c>
@@ -13440,7 +13737,7 @@
         <v>11.253608703613281</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>30000</v>
       </c>
@@ -13455,7 +13752,7 @@
         <v>15.508125305175781</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>40000</v>
       </c>
@@ -13470,7 +13767,7 @@
         <v>19.506660461425781</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>50000</v>
       </c>
@@ -13485,7 +13782,7 @@
         <v>23.911445617675781</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>60000</v>
       </c>
@@ -13500,7 +13797,7 @@
         <v>27.753730773925781</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>70000</v>
       </c>
@@ -13515,7 +13812,7 @@
         <v>31.658515930175781</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>80000</v>
       </c>
@@ -13530,7 +13827,7 @@
         <v>35.875801086425781</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>90000</v>
       </c>
@@ -13545,7 +13842,7 @@
         <v>39.843086242675781</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>100000</v>
       </c>
@@ -13560,12 +13857,12 @@
         <v>44.560371398925781</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -13576,7 +13873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>10000</v>
       </c>
@@ -13591,7 +13888,7 @@
         <v>0.62451171875</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>20000</v>
       </c>
@@ -13603,10 +13900,10 @@
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
-        <v>2.9957504272460937</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.9957504272460938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>30000</v>
       </c>
@@ -13621,7 +13918,7 @@
         <v>3.8862762451171875</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>40000</v>
       </c>
@@ -13633,10 +13930,10 @@
       </c>
       <c r="E103">
         <f t="shared" si="3"/>
-        <v>4.7725448608398437</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.7725448608398438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>50000</v>
       </c>
@@ -13651,7 +13948,7 @@
         <v>5.7850723266601563</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>60000</v>
       </c>
@@ -13666,7 +13963,7 @@
         <v>6.5492019653320313</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>70000</v>
       </c>
@@ -13678,10 +13975,10 @@
       </c>
       <c r="E106">
         <f t="shared" si="3"/>
-        <v>7.3114547729492187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.3114547729492188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>80000</v>
       </c>
@@ -13696,7 +13993,7 @@
         <v>8.3240966796875</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>90000</v>
       </c>
@@ -13711,7 +14008,7 @@
         <v>9.0879974365234375</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>100000</v>
       </c>
@@ -13723,15 +14020,15 @@
       </c>
       <c r="E109">
         <f t="shared" si="3"/>
-        <v>10.350112915039062</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.350112915039063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -13742,7 +14039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>10000</v>
       </c>
@@ -13753,7 +14050,7 @@
         <v>-6588200</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>20000</v>
       </c>
@@ -13764,7 +14061,7 @@
         <v>2371016</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>30000</v>
       </c>
@@ -13775,7 +14072,7 @@
         <v>3091016</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>40000</v>
       </c>
@@ -13786,7 +14083,7 @@
         <v>3942088</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>50000</v>
       </c>
@@ -13797,7 +14094,7 @@
         <v>4662088</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>60000</v>
       </c>
@@ -13808,7 +14105,7 @@
         <v>5382088</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>70000</v>
       </c>
@@ -13819,7 +14116,7 @@
         <v>6364232</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>80000</v>
       </c>
@@ -13830,7 +14127,7 @@
         <v>7084232</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>90000</v>
       </c>
@@ -13841,7 +14138,7 @@
         <v>7804232</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>100000</v>
       </c>
@@ -13852,12 +14149,12 @@
         <v>9048520</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -13871,7 +14168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>10000</v>
       </c>
@@ -13883,10 +14180,10 @@
       </c>
       <c r="E141">
         <f>C141/(1024*1024)</f>
-        <v>-6.3625259399414062</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-6.3625259399414063</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>20000</v>
       </c>
@@ -13898,10 +14195,10 @@
       </c>
       <c r="E142">
         <f t="shared" ref="E142:E150" si="4">C142/(1024*1024)</f>
-        <v>2.1848831176757812</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1848831176757813</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>30000</v>
       </c>
@@ -13913,10 +14210,10 @@
       </c>
       <c r="E143">
         <f t="shared" si="4"/>
-        <v>2.8333816528320312</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.8333816528320313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>40000</v>
       </c>
@@ -13931,7 +14228,7 @@
         <v>3.6068801879882813</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>50000</v>
       </c>
@@ -13946,7 +14243,7 @@
         <v>4.2553787231445313</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>60000</v>
       </c>
@@ -13958,10 +14255,10 @@
       </c>
       <c r="E146">
         <f t="shared" si="4"/>
-        <v>4.9038772583007812</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9038772583007813</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>70000</v>
       </c>
@@ -13976,7 +14273,7 @@
         <v>5.5523757934570313</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>80000</v>
       </c>
@@ -13988,10 +14285,10 @@
       </c>
       <c r="E148">
         <f t="shared" si="4"/>
-        <v>6.4508743286132812</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.4508743286132813</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>90000</v>
       </c>
@@ -14003,10 +14300,10 @@
       </c>
       <c r="E149">
         <f t="shared" si="4"/>
-        <v>7.0993728637695312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0993728637695313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>100000</v>
       </c>
@@ -14018,15 +14315,15 @@
       </c>
       <c r="E150">
         <f t="shared" si="4"/>
-        <v>7.8728713989257812</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.8728713989257813</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -14037,7 +14334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>10000</v>
       </c>
@@ -14052,7 +14349,7 @@
         <v>-0.12197113037109375</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>20000</v>
       </c>
@@ -14067,7 +14364,7 @@
         <v>1.9539566040039063</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>30000</v>
       </c>
@@ -14082,7 +14379,7 @@
         <v>2.6184844970703125</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>40000</v>
       </c>
@@ -14094,10 +14391,10 @@
       </c>
       <c r="E160">
         <f t="shared" si="5"/>
-        <v>3.1475753784179687</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.1475753784179688</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>50000</v>
       </c>
@@ -14109,10 +14406,10 @@
       </c>
       <c r="E161">
         <f t="shared" si="5"/>
-        <v>3.9337844848632812</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.9337844848632813</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>60000</v>
       </c>
@@ -14127,7 +14424,7 @@
         <v>4.4672012329101563</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>70000</v>
       </c>
@@ -14139,10 +14436,10 @@
       </c>
       <c r="E163">
         <f t="shared" si="5"/>
-        <v>5.0031356811523437</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.0031356811523438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>80000</v>
       </c>
@@ -14157,7 +14454,7 @@
         <v>5.533599853515625</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>90000</v>
       </c>
@@ -14172,7 +14469,7 @@
         <v>6.0682525634765625</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>100000</v>
       </c>
@@ -14187,7 +14484,7 @@
         <v>7.1055145263671875</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -14195,7 +14492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>10000</v>
       </c>
@@ -14210,7 +14507,7 @@
         <v>3.0007553100585938</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>20000</v>
       </c>
@@ -14222,10 +14519,10 @@
       </c>
       <c r="E171">
         <f t="shared" ref="E171:E179" si="6">C171/(1024*1024)</f>
-        <v>6.6856460571289062</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.6856460571289063</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>30000</v>
       </c>
@@ -14240,7 +14537,7 @@
         <v>10.093849182128906</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>40000</v>
       </c>
@@ -14255,7 +14552,7 @@
         <v>13.371192932128906</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>50000</v>
       </c>
@@ -14270,7 +14567,7 @@
         <v>16.904396057128906</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>60000</v>
       </c>
@@ -14285,7 +14582,7 @@
         <v>20.183204650878906</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>70000</v>
       </c>
@@ -14300,7 +14597,7 @@
         <v>23.466407775878906</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>80000</v>
       </c>
@@ -14315,7 +14612,7 @@
         <v>26.743751525878906</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>90000</v>
       </c>
@@ -14330,7 +14627,7 @@
         <v>30.024024963378906</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>100000</v>
       </c>
@@ -14345,12 +14642,12 @@
         <v>33.808692932128906</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -14367,7 +14664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>0</v>
       </c>
@@ -14385,7 +14682,7 @@
         <v>38.073272705078125</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1</v>
       </c>
@@ -14403,7 +14700,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>2</v>
       </c>
@@ -14421,7 +14718,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>3</v>
       </c>
@@ -14439,7 +14736,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>4</v>
       </c>
@@ -14457,7 +14754,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>5</v>
       </c>
@@ -14475,7 +14772,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>6</v>
       </c>
@@ -14493,7 +14790,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>7</v>
       </c>
@@ -14511,7 +14808,7 @@
         <v>43.05120849609375</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>8</v>
       </c>
@@ -14529,7 +14826,7 @@
         <v>38.561149597167969</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>9</v>
       </c>
@@ -14547,12 +14844,12 @@
         <v>38.405265808105469</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -14566,7 +14863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>0</v>
       </c>
@@ -14584,7 +14881,7 @@
         <v>38.073219299316406</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1</v>
       </c>
@@ -14602,7 +14899,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>2</v>
       </c>
@@ -14620,7 +14917,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>3</v>
       </c>
@@ -14638,7 +14935,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>4</v>
       </c>
@@ -14656,7 +14953,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>5</v>
       </c>
@@ -14674,7 +14971,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>6</v>
       </c>
@@ -14692,7 +14989,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>7</v>
       </c>
@@ -14710,7 +15007,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>8</v>
       </c>
@@ -14728,7 +15025,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>9</v>
       </c>
@@ -14746,12 +15043,12 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -14768,7 +15065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>0</v>
       </c>
@@ -14786,7 +15083,7 @@
         <v>42.123527526855469</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1</v>
       </c>
@@ -14804,7 +15101,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>2</v>
       </c>
@@ -14822,7 +15119,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>3</v>
       </c>
@@ -14840,7 +15137,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>4</v>
       </c>
@@ -14858,7 +15155,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>5</v>
       </c>
@@ -14876,7 +15173,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>6</v>
       </c>
@@ -14894,7 +15191,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>7</v>
       </c>
@@ -14912,7 +15209,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>8</v>
       </c>
@@ -14930,7 +15227,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>9</v>
       </c>
@@ -14948,17 +15245,17 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -14975,7 +15272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>0</v>
       </c>
@@ -14993,7 +15290,7 @@
         <v>44.162399291992188</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1</v>
       </c>
@@ -15011,7 +15308,7 @@
         <v>38.387733459472656</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>2</v>
       </c>
@@ -15029,7 +15326,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>3</v>
       </c>
@@ -15047,7 +15344,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>4</v>
       </c>
@@ -15065,7 +15362,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>5</v>
       </c>
@@ -15083,7 +15380,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>6</v>
       </c>
@@ -15101,7 +15398,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>7</v>
       </c>
@@ -15119,7 +15416,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>8</v>
       </c>
@@ -15137,7 +15434,7 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>9</v>
       </c>
@@ -15155,17 +15452,17 @@
         <v>38.384132385253906</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -15182,7 +15479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>0</v>
       </c>
@@ -15200,7 +15497,7 @@
         <v>44.287277221679688</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1</v>
       </c>
@@ -15218,7 +15515,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>2</v>
       </c>
@@ -15236,7 +15533,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>3</v>
       </c>
@@ -15254,7 +15551,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>4</v>
       </c>
@@ -15272,7 +15569,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>5</v>
       </c>
@@ -15290,7 +15587,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>6</v>
       </c>
@@ -15308,7 +15605,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>7</v>
       </c>
@@ -15326,7 +15623,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>8</v>
       </c>
@@ -15344,7 +15641,7 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>9</v>
       </c>
@@ -15362,12 +15659,12 @@
         <v>6.3406753540039063</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -15387,7 +15684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>0</v>
       </c>
@@ -15405,7 +15702,7 @@
         <v>415.95128</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>1</v>
       </c>
@@ -15423,7 +15720,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>2</v>
       </c>
@@ -15441,7 +15738,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>3</v>
       </c>
@@ -15459,7 +15756,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>4</v>
       </c>
@@ -15477,7 +15774,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>5</v>
       </c>
@@ -15495,7 +15792,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>6</v>
       </c>
@@ -15513,7 +15810,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>7</v>
       </c>
@@ -15531,7 +15828,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>8</v>
       </c>
@@ -15549,7 +15846,7 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>9</v>
       </c>
@@ -15567,17 +15864,17 @@
         <v>66.486800000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -15597,7 +15894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>0</v>
       </c>
@@ -15612,14 +15909,14 @@
       </c>
       <c r="F287">
         <f t="shared" ref="F287:F296" si="13">D287/(1024*1024)</f>
-        <v>47.041000366210937</v>
+        <v>47.041000366210938</v>
       </c>
       <c r="G287">
         <f>D287/B287</f>
         <v>493.26064000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1</v>
       </c>
@@ -15634,14 +15931,14 @@
       </c>
       <c r="F288">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G288">
         <f t="shared" ref="G288:G296" si="14">D288/B288</f>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>2</v>
       </c>
@@ -15656,14 +15953,14 @@
       </c>
       <c r="F289">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G289">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>3</v>
       </c>
@@ -15678,14 +15975,14 @@
       </c>
       <c r="F290">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G290">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>4</v>
       </c>
@@ -15700,14 +15997,14 @@
       </c>
       <c r="F291">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G291">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>5</v>
       </c>
@@ -15722,14 +16019,14 @@
       </c>
       <c r="F292">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G292">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>6</v>
       </c>
@@ -15744,14 +16041,14 @@
       </c>
       <c r="F293">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G293">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>7</v>
       </c>
@@ -15766,14 +16063,14 @@
       </c>
       <c r="F294">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G294">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>8</v>
       </c>
@@ -15788,14 +16085,14 @@
       </c>
       <c r="F295">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G295">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>9</v>
       </c>
@@ -15810,24 +16107,24 @@
       </c>
       <c r="F296">
         <f t="shared" si="13"/>
-        <v>9.1297073364257812</v>
+        <v>9.1297073364257813</v>
       </c>
       <c r="G296">
         <f t="shared" si="14"/>
         <v>95.731920000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -15841,7 +16138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>0</v>
       </c>
@@ -15855,7 +16152,7 @@
         <v>49588784</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1</v>
       </c>
@@ -15869,7 +16166,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>2</v>
       </c>
@@ -15883,7 +16180,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>3</v>
       </c>
@@ -15897,7 +16194,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>4</v>
       </c>
@@ -15911,7 +16208,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>5</v>
       </c>
@@ -15925,7 +16222,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>6</v>
       </c>
@@ -15939,7 +16236,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>7</v>
       </c>
@@ -15953,7 +16250,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>8</v>
       </c>
@@ -15967,7 +16264,7 @@
         <v>9573320</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>9</v>
       </c>
@@ -15996,12 +16293,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -16009,7 +16306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -16017,7 +16314,7 @@
         <v>633936</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -16028,7 +16325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -16043,7 +16340,7 @@
         <v>492.49575982433561</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16058,7 +16355,7 @@
         <v>429.2395068271876</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -16073,7 +16370,7 @@
         <v>429.23356300951514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -16088,7 +16385,7 @@
         <v>429.23355038994475</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -16103,7 +16400,7 @@
         <v>429.20627949824586</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -16118,7 +16415,7 @@
         <v>429.20632997652763</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6</v>
       </c>
@@ -16133,7 +16430,7 @@
         <v>429.20627949824586</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>7</v>
       </c>
@@ -16148,7 +16445,7 @@
         <v>429.20638045480933</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8</v>
       </c>
@@ -16163,7 +16460,7 @@
         <v>429.23356300951514</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>9</v>
       </c>
@@ -16178,12 +16475,12 @@
         <v>429.20638045480933</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -16191,7 +16488,7 @@
         <v>633936</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -16205,7 +16502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -16224,7 +16521,7 @@
         <v>297.74741363525391</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -16243,7 +16540,7 @@
         <v>56.365943908691406</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -16262,7 +16559,7 @@
         <v>56.365943908691406</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -16281,7 +16578,7 @@
         <v>56.365943908691406</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
@@ -16300,7 +16597,7 @@
         <v>53.61785888671875</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -16319,7 +16616,7 @@
         <v>52.406082153320313</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6</v>
       </c>
@@ -16338,7 +16635,7 @@
         <v>56.365943908691406</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>7</v>
       </c>
@@ -16357,7 +16654,7 @@
         <v>56.365440368652344</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>8</v>
       </c>
@@ -16376,7 +16673,7 @@
         <v>56.365158081054688</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>9</v>
       </c>
@@ -16395,7 +16692,7 @@
         <v>56.349510192871094</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -16421,12 +16718,12 @@
       <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -16437,7 +16734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -16451,7 +16748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -16469,7 +16766,7 @@
         <v>494.52568000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16487,7 +16784,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16505,7 +16802,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16523,7 +16820,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16541,7 +16838,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16559,7 +16856,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16577,7 +16874,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16595,7 +16892,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16613,7 +16910,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16631,7 +16928,7 @@
         <v>95.733519999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -16639,7 +16936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -16657,7 +16954,7 @@
         <v>480.03696000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16675,7 +16972,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -16693,7 +16990,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -16711,7 +17008,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -16729,7 +17026,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -16747,7 +17044,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
@@ -16765,7 +17062,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
@@ -16783,7 +17080,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
@@ -16801,7 +17098,7 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>9</v>
       </c>
@@ -16819,12 +17116,12 @@
         <v>81.246080000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -16841,7 +17138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -16859,7 +17156,7 @@
         <v>566.53128000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -16877,7 +17174,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2</v>
       </c>
@@ -16895,7 +17192,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -16913,7 +17210,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>4</v>
       </c>
@@ -16931,7 +17228,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>5</v>
       </c>
@@ -16949,7 +17246,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>6</v>
       </c>
@@ -16967,7 +17264,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>7</v>
       </c>
@@ -16985,7 +17282,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>8</v>
       </c>
@@ -17003,7 +17300,7 @@
         <v>167.73352</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>9</v>
       </c>
@@ -17030,18 +17327,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -17055,7 +17352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -17069,7 +17366,7 @@
         <v>3791376</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17083,7 +17380,7 @@
         <v>7686048</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -17097,7 +17394,7 @@
         <v>11255456</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -17111,7 +17408,7 @@
         <v>14745384</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -17125,7 +17422,7 @@
         <v>18357256</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -17139,7 +17436,7 @@
         <v>21838496</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6</v>
       </c>
@@ -17153,7 +17450,7 @@
         <v>25188000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>7</v>
       </c>
@@ -17167,7 +17464,7 @@
         <v>28930728</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8</v>
       </c>
@@ -17181,7 +17478,7 @@
         <v>32411528</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>9</v>
       </c>
@@ -17195,12 +17492,12 @@
         <v>36285592</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -17214,7 +17511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -17228,7 +17525,7 @@
         <v>-118032</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -17242,7 +17539,7 @@
         <v>-165632</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -17256,7 +17553,7 @@
         <v>-676856</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -17270,7 +17567,7 @@
         <v>-1196352</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>4</v>
       </c>
@@ -17284,7 +17581,7 @@
         <v>-1447672</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>5</v>
       </c>
@@ -17298,7 +17595,7 @@
         <v>-2120784</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>6</v>
       </c>
@@ -17312,7 +17609,7 @@
         <v>-2473384</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>7</v>
       </c>
@@ -17326,7 +17623,7 @@
         <v>-2856016</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>8</v>
       </c>
@@ -17340,7 +17637,7 @@
         <v>-3170624</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>9</v>
       </c>
@@ -17354,12 +17651,12 @@
         <v>-3825656</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -17373,7 +17670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0</v>
       </c>
@@ -17387,7 +17684,7 @@
         <v>-131720</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -17401,7 +17698,7 @@
         <v>-198080</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2</v>
       </c>
@@ -17415,7 +17712,7 @@
         <v>-710536</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -17429,7 +17726,7 @@
         <v>-1000992</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>4</v>
       </c>
@@ -17443,7 +17740,7 @@
         <v>-1503920</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>5</v>
       </c>
@@ -17457,7 +17754,7 @@
         <v>-1923856</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>6</v>
       </c>
@@ -17471,7 +17768,7 @@
         <v>-2501016</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>7</v>
       </c>
@@ -17485,7 +17782,7 @@
         <v>-2944912</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>8</v>
       </c>
@@ -17499,7 +17796,7 @@
         <v>-3284104</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>9</v>
       </c>
